--- a/medicine/Sexualité et sexologie/Water-bondage/Water-bondage.xlsx
+++ b/medicine/Sexualité et sexologie/Water-bondage/Water-bondage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le water-bondage est une pratique sexuelle liée au bondage qui contraint un des partenaires à différents « supplices » liés à l'eau, soit par aspersion soit par immersion. Pour l'immersion, cela peut se faire dans tout type de bassin (évier, baignoire, piscine...) ou bien dans des cours d'eau, lac ou en mer. La pratique du water-bondage nécessite des précautions car elle présente d'évidents dangers: asphyxie, noyade, hydrocution.
 Si l’aspersion n’est pas dangereuse en soi, l’immersion elle, nécessite une attention particulière car il est difficile de parler la tête sous l’eau. Une évidence certes, mais le chapitre « mode d’emploi » va apporter un complément d’information sur la communication en water-bondage.
@@ -512,7 +524,9 @@
           <t>Les sensations du water-bondage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Être attaché dans un but érotique génère d’agréables sensations aux adeptes du bondage et/ou des contraintes physiques. Les sensations du water-bondage sont brèves mais beaucoup plus puissantes dès lors que l’on immerge la tête de la personne.
 Le water-bondage, outre les sensations procurées par l’eau, par l’aspersion et par l’immersion, relève d’une forme de contrôle  de la respiration dans laquelle, tant que la tête est hors de l’eau, la personne est rassurée mais, lorsque la tête est sous l’eau, les secondes comptent double dans la tête de la personne immergée. Pour peu que l’on impose trois ou quatre secondes supplémentaires en immersion, ces secondes vont compter triple. Outre les effets du bondage, s’ajoutera donc la peur, même si la personne immergée est en totale confiance. La confiance réciproque est donc essentielle dans cette pratique, de même que le sens des responsabilités.
@@ -544,7 +558,9 @@
           <t>Mode d'emploi de l'immersion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une bassine ou un évier
 Plonger la tête d’une personne dans une bassine n’est pas très compliqué en termes de communication dans le sens où l’on voit le reste du corps. Exemple : ouvrir et fermer les mains signifie « stop ». On peut maintenir la tête quelques secondes supplémentaires mais pas plus sinon la personne va « boire la tasse ».
